--- a/OrangeHRM_Project/src/test/resources/TestData/OrangeHRM.xlsx
+++ b/OrangeHRM_Project/src/test/resources/TestData/OrangeHRM.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationTesting\OrangeHRM2\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationTesting\OrangeHRM_Project\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="AddEmployeePage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="0">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -83,13 +84,39 @@
   </si>
   <si>
     <t>testCase07</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>EmployeeID</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>Anil</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Uttarkabat</t>
+  </si>
+  <si>
+    <t>Personal Details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -126,10 +153,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,20 +464,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.66406"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.44141"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.44141"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="6.777344"/>
+    <col min="1" max="1" width="14.66406" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44141" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44141" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.777344" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
@@ -477,10 +512,10 @@
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -497,10 +532,10 @@
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -517,10 +552,10 @@
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -537,10 +572,10 @@
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -576,4 +611,113 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="14.66406" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44141" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.777344" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.886719" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1504</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/OrangeHRM_Project/src/test/resources/TestData/OrangeHRM.xlsx
+++ b/OrangeHRM_Project/src/test/resources/TestData/OrangeHRM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationTesting\OrangeHRM_Project\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationTesting\OrangeHRM_Project\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Uttarkabat</t>
+  </si>
+  <si>
+    <t>C:\AutomationTesting\OrangeHRM_Project\src\test\resources\photo\Anil.jpg</t>
   </si>
   <si>
     <t>Personal Details</t>
@@ -153,18 +156,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,7 +629,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -627,7 +639,7 @@
     <col min="3" max="3" width="13" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.88672" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="18" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.777344" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.886719" style="5"/>
@@ -649,7 +661,7 @@
       <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -662,7 +674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1">
+    <row r="2" s="4" customFormat="1" ht="31.2">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -678,24 +690,30 @@
       <c r="E2" s="4">
         <v>1504</v>
       </c>
+      <c r="F2" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="G2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" s="4" customFormat="1">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
@@ -704,7 +722,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">

--- a/OrangeHRM_Project/src/test/resources/TestData/OrangeHRM.xlsx
+++ b/OrangeHRM_Project/src/test/resources/TestData/OrangeHRM.xlsx
@@ -7,11 +7,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AddEmployeePage" sheetId="2" r:id="rId2"/>
+    <sheet name="EmployeeListPage" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -114,6 +115,24 @@
   </si>
   <si>
     <t>Personal Details</t>
+  </si>
+  <si>
+    <t>EmployeeName</t>
+  </si>
+  <si>
+    <t>SupervisorName</t>
+  </si>
+  <si>
+    <t>Employment Status</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>SubUnit</t>
   </si>
 </sst>
 </file>
@@ -628,8 +647,8 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -738,4 +757,96 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.66406" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.10938" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.55469" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.10938" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.777344" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.332031" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.441406" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.441406" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.886719" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>